--- a/DASHBOARD_SPOTIFY_2025/SPOTIFY 2025 BRASIL.xlsx
+++ b/DASHBOARD_SPOTIFY_2025/SPOTIFY 2025 BRASIL.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Documents\GABRIEL\PROJETOS\SPOTIFY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\PROJETOS\Dashboard_Spotify_2025-main\DASHBOARD_SPOTIFY_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2013B3-14D1-4094-9AF9-E186F61A6454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873D6524-D879-46D0-ABD3-BC53C1D17703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP ARTISTAS" sheetId="1" r:id="rId1"/>
     <sheet name="TOP MÚSICAS" sheetId="2" r:id="rId2"/>
     <sheet name="TOP ÁLBUNS" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>POSIÇÃO</t>
   </si>
@@ -219,6 +231,9 @@
   </si>
   <si>
     <t>Trap</t>
+  </si>
+  <si>
+    <t>STREAMS</t>
   </si>
 </sst>
 </file>
@@ -274,7 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +307,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -753,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6717965D-245F-422F-A16F-34B3F58BC953}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3327FDE2-BFD6-4A6D-8A43-95D05C8EFEC6}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,10 +1070,11 @@
     <col min="5" max="5" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1096,11 @@
       <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1097,8 +1122,11 @@
       <c r="G2" s="6">
         <v>5.6250000000000001E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="8">
+        <v>1421298139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1120,8 +1148,11 @@
       <c r="G3" s="6">
         <v>2.9166666666666667E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="8">
+        <v>658516528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1143,8 +1174,11 @@
       <c r="G4" s="6">
         <v>3.5416666666666666E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="8">
+        <v>2103224712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1166,8 +1200,11 @@
       <c r="G5" s="6">
         <v>2.2916666666666665E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="8">
+        <v>656081062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1189,8 +1226,11 @@
       <c r="G6" s="6">
         <v>9.0277777777777776E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="8">
+        <v>1979521945</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1212,8 +1252,11 @@
       <c r="G7" s="6">
         <v>2.9166666666666667E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="8">
+        <v>831781621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1235,8 +1278,11 @@
       <c r="G8" s="6">
         <v>7.6388888888888895E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="8">
+        <v>5493041503</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1258,8 +1304,11 @@
       <c r="G9" s="6">
         <v>3.6805555555555557E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="8">
+        <v>5033709566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1281,8 +1330,11 @@
       <c r="G10" s="6">
         <v>2.1527777777777778E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="8">
+        <v>5513097112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1303,6 +1355,9 @@
       </c>
       <c r="G11" s="6">
         <v>3.6805555555555557E-2</v>
+      </c>
+      <c r="H11" s="8">
+        <v>413565042</v>
       </c>
     </row>
   </sheetData>
